--- a/10550_0145.xlsx
+++ b/10550_0145.xlsx
@@ -8242,131 +8242,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId325"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>846</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="326" name="Image 326" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId326"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>846</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="327" name="Image 327" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId327"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>846</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="328" name="Image 328" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId328"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>846</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="329" name="Image 329" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId329"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>846</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="330" name="Image 330" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId330"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8669,7 +8544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8985,14 +8860,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>106.0249276_1.0354714_10550_0145_7</t>
+          <t>105.3902834_0.9991541_10550_0145_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.0249276</v>
+        <v>105.3902834</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0354714</v>
+        <v>0.9991541</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -9001,41 +8876,41 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cuts/106.0249276,1.0354714_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.3902834,0.9991541_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>cuts/106.0249276,1.0354714_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3902834,0.9991541_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>cuts/106.0249276,1.0354714_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3902834,0.9991541_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>cuts/106.0249276,1.0354714_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3902834,0.9991541_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cuts/106.0249276,1.0354714_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3902834,0.9991541_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>105.3902834_0.9991541_10550_0145_8</t>
+          <t>105.2071823_1.2588261_10550_0145_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.3902834</v>
+        <v>105.2071823</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991541</v>
+        <v>1.2588261</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -9044,41 +8919,41 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cuts/105.3902834,0.9991541_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.2071823,1.2588261_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>cuts/105.3902834,0.9991541_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2071823,1.2588261_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>cuts/105.3902834,0.9991541_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2071823,1.2588261_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cuts/105.3902834,0.9991541_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2071823,1.2588261_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cuts/105.3902834,0.9991541_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2071823,1.2588261_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>105.2071823_1.2588261_10550_0145_9</t>
+          <t>105.1965085_2.0789630_10550_0145_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.2071823</v>
+        <v>105.1965085</v>
       </c>
       <c r="C10" t="n">
-        <v>1.2588261</v>
+        <v>2.078963</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -9087,41 +8962,41 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cuts/105.2071823,1.2588261_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.1965085,2.0789630_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>cuts/105.2071823,1.2588261_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.1965085,2.0789630_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>cuts/105.2071823,1.2588261_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.1965085,2.0789630_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cuts/105.2071823,1.2588261_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.1965085,2.0789630_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cuts/105.2071823,1.2588261_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.1965085,2.0789630_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>105.1965085_2.0789630_10550_0145_10</t>
+          <t>105.0641002_1.6416481_10550_0145_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.1965085</v>
+        <v>105.0641002</v>
       </c>
       <c r="C11" t="n">
-        <v>2.078963</v>
+        <v>1.6416481</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -9130,41 +9005,41 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cuts/105.1965085,2.0789630_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.0641002,1.6416481_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>cuts/105.1965085,2.0789630_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0641002,1.6416481_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>cuts/105.1965085,2.0789630_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0641002,1.6416481_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cuts/105.1965085,2.0789630_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0641002,1.6416481_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cuts/105.1965085,2.0789630_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0641002,1.6416481_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>105.0641002_1.6416481_10550_0145_11</t>
+          <t>105.9942496_1.4866961_10550_0145_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>105.0641002</v>
+        <v>105.9942496</v>
       </c>
       <c r="C12" t="n">
-        <v>1.6416481</v>
+        <v>1.4866961</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -9173,41 +9048,41 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cuts/105.0641002,1.6416481_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.9942496,1.4866961_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cuts/105.0641002,1.6416481_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.9942496,1.4866961_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>cuts/105.0641002,1.6416481_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.9942496,1.4866961_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cuts/105.0641002,1.6416481_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.9942496,1.4866961_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cuts/105.0641002,1.6416481_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.9942496,1.4866961_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>105.9942496_1.4866961_10550_0145_12</t>
+          <t>105.9348692_1.3457083_10550_0145_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.9942496</v>
+        <v>105.9348692</v>
       </c>
       <c r="C13" t="n">
-        <v>1.4866961</v>
+        <v>1.3457083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -9216,41 +9091,41 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cuts/105.9942496,1.4866961_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.9348692,1.3457083_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cuts/105.9942496,1.4866961_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.9348692,1.3457083_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>cuts/105.9942496,1.4866961_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.9348692,1.3457083_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cuts/105.9942496,1.4866961_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.9348692,1.3457083_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cuts/105.9942496,1.4866961_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.9348692,1.3457083_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>105.9348692_1.3457083_10550_0145_13</t>
+          <t>106.0366351_0.9435198_10550_0145_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>105.9348692</v>
+        <v>106.0366351</v>
       </c>
       <c r="C14" t="n">
-        <v>1.3457083</v>
+        <v>0.9435198</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -9259,41 +9134,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cuts/105.9348692,1.3457083_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/106.0366351,0.9435198_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>cuts/105.9348692,1.3457083_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/106.0366351,0.9435198_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cuts/105.9348692,1.3457083_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/106.0366351,0.9435198_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cuts/105.9348692,1.3457083_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/106.0366351,0.9435198_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cuts/105.9348692,1.3457083_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/106.0366351,0.9435198_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>106.0366351_0.9435198_10550_0145_14</t>
+          <t>105.9429501_0.8957067_10550_0145_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>106.0366351</v>
+        <v>105.9429501</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9435198</v>
+        <v>0.8957067</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -9302,41 +9177,41 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cuts/106.0366351,0.9435198_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.9429501,0.8957067_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cuts/106.0366351,0.9435198_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.9429501,0.8957067_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cuts/106.0366351,0.9435198_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.9429501,0.8957067_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cuts/106.0366351,0.9435198_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.9429501,0.8957067_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cuts/106.0366351,0.9435198_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.9429501,0.8957067_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>105.9429501_0.8957067_10550_0145_15</t>
+          <t>105.8490145_1.3598898_10550_0145_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.9429501</v>
+        <v>105.8490145</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8957067</v>
+        <v>1.3598898</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -9345,41 +9220,41 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cuts/105.9429501,0.8957067_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8490145,1.3598898_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>cuts/105.9429501,0.8957067_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8490145,1.3598898_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cuts/105.9429501,0.8957067_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8490145,1.3598898_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cuts/105.9429501,0.8957067_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8490145,1.3598898_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cuts/105.9429501,0.8957067_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8490145,1.3598898_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>105.8490145_1.3598898_10550_0145_16</t>
+          <t>105.8573619_1.4342219_10550_0145_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>105.8490145</v>
+        <v>105.8573619</v>
       </c>
       <c r="C17" t="n">
-        <v>1.3598898</v>
+        <v>1.4342219</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -9388,41 +9263,41 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cuts/105.8490145,1.3598898_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8573619,1.4342219_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>cuts/105.8490145,1.3598898_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8573619,1.4342219_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>cuts/105.8490145,1.3598898_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8573619,1.4342219_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cuts/105.8490145,1.3598898_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8573619,1.4342219_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cuts/105.8490145,1.3598898_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8573619,1.4342219_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>105.8573619_1.4342219_10550_0145_17</t>
+          <t>105.8237443_1.8508936_10550_0145_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>105.8573619</v>
+        <v>105.8237443</v>
       </c>
       <c r="C18" t="n">
-        <v>1.4342219</v>
+        <v>1.8508936</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -9431,41 +9306,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cuts/105.8573619,1.4342219_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8237443,1.8508936_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>cuts/105.8573619,1.4342219_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8237443,1.8508936_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>cuts/105.8573619,1.4342219_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8237443,1.8508936_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cuts/105.8573619,1.4342219_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8237443,1.8508936_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cuts/105.8573619,1.4342219_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8237443,1.8508936_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>105.8237443_1.8508936_10550_0145_18</t>
+          <t>105.8507568_1.8450562_10550_0145_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.8237443</v>
+        <v>105.8507568</v>
       </c>
       <c r="C19" t="n">
-        <v>1.8508936</v>
+        <v>1.8450562</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -9474,41 +9349,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cuts/105.8237443,1.8508936_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8507568,1.8450562_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cuts/105.8237443,1.8508936_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8507568,1.8450562_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>cuts/105.8237443,1.8508936_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8507568,1.8450562_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cuts/105.8237443,1.8508936_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8507568,1.8450562_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cuts/105.8237443,1.8508936_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8507568,1.8450562_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>105.8507568_1.8450562_10550_0145_19</t>
+          <t>105.7810731_1.9850659_10550_0145_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.8507568</v>
+        <v>105.7810731</v>
       </c>
       <c r="C20" t="n">
-        <v>1.8450562</v>
+        <v>1.9850659</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -9517,41 +9392,41 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cuts/105.8507568,1.8450562_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.7810731,1.9850659_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>cuts/105.8507568,1.8450562_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.7810731,1.9850659_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>cuts/105.8507568,1.8450562_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.7810731,1.9850659_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cuts/105.8507568,1.8450562_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.7810731,1.9850659_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>cuts/105.8507568,1.8450562_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.7810731,1.9850659_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>105.7810731_1.9850659_10550_0145_20</t>
+          <t>105.7480282_1.7427365_10550_0145_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.7810731</v>
+        <v>105.7480282</v>
       </c>
       <c r="C21" t="n">
-        <v>1.9850659</v>
+        <v>1.7427365</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -9560,41 +9435,41 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cuts/105.7810731,1.9850659_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.7480282,1.7427365_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cuts/105.7810731,1.9850659_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.7480282,1.7427365_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>cuts/105.7810731,1.9850659_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.7480282,1.7427365_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cuts/105.7810731,1.9850659_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.7480282,1.7427365_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>cuts/105.7810731,1.9850659_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.7480282,1.7427365_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>105.7480282_1.7427365_10550_0145_21</t>
+          <t>105.6483053_1.5699119_10550_0145_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.7480282</v>
+        <v>105.6483053</v>
       </c>
       <c r="C22" t="n">
-        <v>1.7427365</v>
+        <v>1.5699119</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -9603,41 +9478,41 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cuts/105.7480282,1.7427365_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.6483053,1.5699119_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>cuts/105.7480282,1.7427365_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.6483053,1.5699119_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuts/105.7480282,1.7427365_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.6483053,1.5699119_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cuts/105.7480282,1.7427365_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.6483053,1.5699119_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>cuts/105.7480282,1.7427365_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.6483053,1.5699119_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>105.6483053_1.5699119_10550_0145_22</t>
+          <t>105.7137919_1.1690733_10550_0145_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>105.6483053</v>
+        <v>105.7137919</v>
       </c>
       <c r="C23" t="n">
-        <v>1.5699119</v>
+        <v>1.1690733</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -9646,41 +9521,41 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cuts/105.6483053,1.5699119_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.7137919,1.1690733_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>cuts/105.6483053,1.5699119_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.7137919,1.1690733_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>cuts/105.6483053,1.5699119_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.7137919,1.1690733_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cuts/105.6483053,1.5699119_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.7137919,1.1690733_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>cuts/105.6483053,1.5699119_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.7137919,1.1690733_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>105.7137919_1.1690733_10550_0145_23</t>
+          <t>105.4370809_0.8132492_10550_0145_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>105.7137919</v>
+        <v>105.4370809</v>
       </c>
       <c r="C24" t="n">
-        <v>1.1690733</v>
+        <v>0.8132492</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -9689,41 +9564,41 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cuts/105.7137919,1.1690733_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.4370809,0.8132492_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>cuts/105.7137919,1.1690733_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4370809,0.8132492_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>cuts/105.7137919,1.1690733_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4370809,0.8132492_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cuts/105.7137919,1.1690733_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4370809,0.8132492_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>cuts/105.7137919,1.1690733_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4370809,0.8132492_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>105.4370809_0.8132492_10550_0145_24</t>
+          <t>105.5169175_0.8409167_10550_0145_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.4370809</v>
+        <v>105.5169175</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8132492</v>
+        <v>0.8409167</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -9732,41 +9607,41 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cuts/105.4370809,0.8132492_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.5169175,0.8409167_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>cuts/105.4370809,0.8132492_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5169175,0.8409167_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>cuts/105.4370809,0.8132492_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5169175,0.8409167_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cuts/105.4370809,0.8132492_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5169175,0.8409167_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>cuts/105.4370809,0.8132492_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5169175,0.8409167_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>105.5169175_0.8409167_10550_0145_25</t>
+          <t>105.5160925_2.0115833_10550_0145_25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105.5169175</v>
+        <v>105.5160925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8409167</v>
+        <v>2.0115833</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -9775,41 +9650,41 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cuts/105.5169175,0.8409167_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.5160925,2.0115833_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>cuts/105.5169175,0.8409167_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5160925,2.0115833_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>cuts/105.5169175,0.8409167_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5160925,2.0115833_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cuts/105.5169175,0.8409167_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5160925,2.0115833_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>cuts/105.5169175,0.8409167_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5160925,2.0115833_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>105.5160925_2.0115833_10550_0145_26</t>
+          <t>105.3887357_1.0152473_10550_0145_26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>105.5160925</v>
+        <v>105.3887357</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0115833</v>
+        <v>1.0152473</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -9818,41 +9693,41 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cuts/105.5160925,2.0115833_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.3887357,1.0152473_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>cuts/105.5160925,2.0115833_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3887357,1.0152473_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>cuts/105.5160925,2.0115833_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3887357,1.0152473_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cuts/105.5160925,2.0115833_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3887357,1.0152473_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>cuts/105.5160925,2.0115833_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3887357,1.0152473_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>105.3887357_1.0152473_10550_0145_27</t>
+          <t>105.1843419_1.2615614_10550_0145_27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.3887357</v>
+        <v>105.1843419</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0152473</v>
+        <v>1.2615614</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -9861,41 +9736,41 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cuts/105.3887357,1.0152473_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.1843419,1.2615614_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>cuts/105.3887357,1.0152473_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.1843419,1.2615614_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>cuts/105.3887357,1.0152473_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.1843419,1.2615614_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>cuts/105.3887357,1.0152473_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.1843419,1.2615614_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>cuts/105.3887357,1.0152473_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.1843419,1.2615614_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>105.1843419_1.2615614_10550_0145_28</t>
+          <t>105.0830889_1.9804483_10550_0145_28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>105.1843419</v>
+        <v>105.0830889</v>
       </c>
       <c r="C29" t="n">
-        <v>1.2615614</v>
+        <v>1.9804483</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -9904,41 +9779,41 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cuts/105.1843419,1.2615614_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.0830889,1.9804483_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cuts/105.1843419,1.2615614_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0830889,1.9804483_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>cuts/105.1843419,1.2615614_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0830889,1.9804483_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cuts/105.1843419,1.2615614_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0830889,1.9804483_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cuts/105.1843419,1.2615614_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0830889,1.9804483_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>105.0830889_1.9804483_10550_0145_29</t>
+          <t>105.0363164_2.0283693_10550_0145_29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.0830889</v>
+        <v>105.0363164</v>
       </c>
       <c r="C30" t="n">
-        <v>1.9804483</v>
+        <v>2.0283693</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -9947,41 +9822,41 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cuts/105.0830889,1.9804483_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.0363164,2.0283693_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cuts/105.0830889,1.9804483_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0363164,2.0283693_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>cuts/105.0830889,1.9804483_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0363164,2.0283693_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cuts/105.0830889,1.9804483_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0363164,2.0283693_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cuts/105.0830889,1.9804483_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0363164,2.0283693_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>105.0363164_2.0283693_10550_0145_30</t>
+          <t>105.4854092_1.8880833_10550_0145_30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0363164</v>
+        <v>105.4854092</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0283693</v>
+        <v>1.8880833</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -9990,41 +9865,41 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cuts/105.0363164,2.0283693_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.4854092,1.8880833_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>cuts/105.0363164,2.0283693_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4854092,1.8880833_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>cuts/105.0363164,2.0283693_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4854092,1.8880833_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cuts/105.0363164,2.0283693_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4854092,1.8880833_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cuts/105.0363164,2.0283693_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4854092,1.8880833_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>105.4854092_1.8880833_10550_0145_31</t>
+          <t>105.9729026_1.4557007_10550_0145_31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.4854092</v>
+        <v>105.9729026</v>
       </c>
       <c r="C32" t="n">
-        <v>1.8880833</v>
+        <v>1.4557007</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -10033,41 +9908,41 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cuts/105.4854092,1.8880833_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.9729026,1.4557007_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>cuts/105.4854092,1.8880833_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.9729026,1.4557007_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>cuts/105.4854092,1.8880833_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.9729026,1.4557007_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cuts/105.4854092,1.8880833_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.9729026,1.4557007_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>cuts/105.4854092,1.8880833_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.9729026,1.4557007_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>105.9729026_1.4557007_10550_0145_32</t>
+          <t>105.8778701_1.4447185_10550_0145_32</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>105.9729026</v>
+        <v>105.8778701</v>
       </c>
       <c r="C33" t="n">
-        <v>1.4557007</v>
+        <v>1.4447185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -10076,41 +9951,41 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cuts/105.9729026,1.4557007_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8778701,1.4447185_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>cuts/105.9729026,1.4557007_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8778701,1.4447185_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>cuts/105.9729026,1.4557007_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8778701,1.4447185_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cuts/105.9729026,1.4557007_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8778701,1.4447185_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cuts/105.9729026,1.4557007_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8778701,1.4447185_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>105.8778701_1.4447185_10550_0145_33</t>
+          <t>105.9099247_1.6898796_10550_0145_33</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.8778701</v>
+        <v>105.9099247</v>
       </c>
       <c r="C34" t="n">
-        <v>1.4447185</v>
+        <v>1.6898796</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -10119,41 +9994,41 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cuts/105.8778701,1.4447185_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.9099247,1.6898796_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cuts/105.8778701,1.4447185_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.9099247,1.6898796_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>cuts/105.8778701,1.4447185_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.9099247,1.6898796_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cuts/105.8778701,1.4447185_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.9099247,1.6898796_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>cuts/105.8778701,1.4447185_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.9099247,1.6898796_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>105.9099247_1.6898796_10550_0145_34</t>
+          <t>105.8557620_1.8622221_10550_0145_34</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>105.9099247</v>
+        <v>105.855762</v>
       </c>
       <c r="C35" t="n">
-        <v>1.6898796</v>
+        <v>1.8622221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -10162,41 +10037,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cuts/105.9099247,1.6898796_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8557620,1.8622221_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>cuts/105.9099247,1.6898796_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8557620,1.8622221_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>cuts/105.9099247,1.6898796_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8557620,1.8622221_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cuts/105.9099247,1.6898796_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8557620,1.8622221_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>cuts/105.9099247,1.6898796_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8557620,1.8622221_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>105.8557620_1.8622221_10550_0145_35</t>
+          <t>105.9622024_1.3080362_10550_0145_35</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>105.855762</v>
+        <v>105.9622024</v>
       </c>
       <c r="C36" t="n">
-        <v>1.8622221</v>
+        <v>1.3080362</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -10205,41 +10080,41 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cuts/105.8557620,1.8622221_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.9622024,1.3080362_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>cuts/105.8557620,1.8622221_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.9622024,1.3080362_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>cuts/105.8557620,1.8622221_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.9622024,1.3080362_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cuts/105.8557620,1.8622221_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.9622024,1.3080362_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>cuts/105.8557620,1.8622221_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.9622024,1.3080362_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>105.9622024_1.3080362_10550_0145_36</t>
+          <t>105.9743623_1.2608670_10550_0145_36</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.9622024</v>
+        <v>105.9743623</v>
       </c>
       <c r="C37" t="n">
-        <v>1.3080362</v>
+        <v>1.260867</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -10248,41 +10123,41 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cuts/105.9622024,1.3080362_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.9743623,1.2608670_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>cuts/105.9622024,1.3080362_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.9743623,1.2608670_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>cuts/105.9622024,1.3080362_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.9743623,1.2608670_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cuts/105.9622024,1.3080362_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.9743623,1.2608670_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>cuts/105.9622024,1.3080362_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.9743623,1.2608670_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>105.9743623_1.2608670_10550_0145_37</t>
+          <t>106.0048479_1.1640271_10550_0145_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105.9743623</v>
+        <v>106.0048479</v>
       </c>
       <c r="C38" t="n">
-        <v>1.260867</v>
+        <v>1.1640271</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -10291,41 +10166,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/105.9743623,1.2608670_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/106.0048479,1.1640271_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/105.9743623,1.2608670_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/106.0048479,1.1640271_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/105.9743623,1.2608670_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/106.0048479,1.1640271_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/105.9743623,1.2608670_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/106.0048479,1.1640271_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/105.9743623,1.2608670_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/106.0048479,1.1640271_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>106.0048479_1.1640271_10550_0145_38</t>
+          <t>106.0241868_1.1718561_10550_0145_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>106.0048479</v>
+        <v>106.0241868</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1640271</v>
+        <v>1.1718561</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -10334,41 +10209,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/106.0048479,1.1640271_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/106.0241868,1.1718561_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/106.0048479,1.1640271_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/106.0241868,1.1718561_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/106.0048479,1.1640271_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/106.0241868,1.1718561_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/106.0048479,1.1640271_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/106.0241868,1.1718561_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/106.0048479,1.1640271_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/106.0241868,1.1718561_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>106.0241868_1.1718561_10550_0145_39</t>
+          <t>105.8660707_1.6777205_10550_0145_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.0241868</v>
+        <v>105.8660707</v>
       </c>
       <c r="C40" t="n">
-        <v>1.1718561</v>
+        <v>1.6777205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -10377,41 +10252,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/106.0241868,1.1718561_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8660707,1.6777205_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/106.0241868,1.1718561_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8660707,1.6777205_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/106.0241868,1.1718561_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8660707,1.6777205_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/106.0241868,1.1718561_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8660707,1.6777205_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/106.0241868,1.1718561_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8660707,1.6777205_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>105.8660707_1.6777205_10550_0145_40</t>
+          <t>105.8065407_1.6408960_10550_0145_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>105.8660707</v>
+        <v>105.8065407</v>
       </c>
       <c r="C41" t="n">
-        <v>1.6777205</v>
+        <v>1.640896</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -10420,41 +10295,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/105.8660707,1.6777205_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8065407,1.6408960_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/105.8660707,1.6777205_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8065407,1.6408960_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/105.8660707,1.6777205_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8065407,1.6408960_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/105.8660707,1.6777205_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8065407,1.6408960_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/105.8660707,1.6777205_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8065407,1.6408960_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>105.8065407_1.6408960_10550_0145_41</t>
+          <t>105.8048636_1.5688962_10550_0145_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>105.8065407</v>
+        <v>105.8048636</v>
       </c>
       <c r="C42" t="n">
-        <v>1.640896</v>
+        <v>1.5688962</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -10463,41 +10338,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/105.8065407,1.6408960_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8048636,1.5688962_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/105.8065407,1.6408960_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8048636,1.5688962_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/105.8065407,1.6408960_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8048636,1.5688962_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/105.8065407,1.6408960_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8048636,1.5688962_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/105.8065407,1.6408960_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8048636,1.5688962_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>105.8048636_1.5688962_10550_0145_42</t>
+          <t>105.8445458_1.5735572_10550_0145_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.8048636</v>
+        <v>105.8445458</v>
       </c>
       <c r="C43" t="n">
-        <v>1.5688962</v>
+        <v>1.5735572</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -10506,41 +10381,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/105.8048636,1.5688962_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8445458,1.5735572_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/105.8048636,1.5688962_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8445458,1.5735572_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/105.8048636,1.5688962_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8445458,1.5735572_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/105.8048636,1.5688962_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8445458,1.5735572_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/105.8048636,1.5688962_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8445458,1.5735572_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>105.8445458_1.5735572_10550_0145_43</t>
+          <t>105.6846464_1.4980759_10550_0145_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105.8445458</v>
+        <v>105.6846464</v>
       </c>
       <c r="C44" t="n">
-        <v>1.5735572</v>
+        <v>1.4980759</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -10549,41 +10424,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/105.8445458,1.5735572_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.6846464,1.4980759_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/105.8445458,1.5735572_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.6846464,1.4980759_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/105.8445458,1.5735572_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.6846464,1.4980759_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/105.8445458,1.5735572_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.6846464,1.4980759_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/105.8445458,1.5735572_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.6846464,1.4980759_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>105.6846464_1.4980759_10550_0145_44</t>
+          <t>105.8940503_1.4928824_10550_0145_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>105.6846464</v>
+        <v>105.8940503</v>
       </c>
       <c r="C45" t="n">
-        <v>1.4980759</v>
+        <v>1.4928824</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -10592,41 +10467,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/105.6846464,1.4980759_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8940503,1.4928824_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/105.6846464,1.4980759_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8940503,1.4928824_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/105.6846464,1.4980759_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8940503,1.4928824_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/105.6846464,1.4980759_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8940503,1.4928824_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/105.6846464,1.4980759_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8940503,1.4928824_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>105.8940503_1.4928824_10550_0145_45</t>
+          <t>105.8043506_1.4735629_10550_0145_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.8940503</v>
+        <v>105.8043506</v>
       </c>
       <c r="C46" t="n">
-        <v>1.4928824</v>
+        <v>1.4735629</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -10635,41 +10510,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/105.8940503,1.4928824_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8043506,1.4735629_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/105.8940503,1.4928824_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8043506,1.4735629_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/105.8940503,1.4928824_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8043506,1.4735629_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/105.8940503,1.4928824_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8043506,1.4735629_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/105.8940503,1.4928824_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8043506,1.4735629_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>105.8043506_1.4735629_10550_0145_46</t>
+          <t>105.6434554_1.3357455_10550_0145_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>105.8043506</v>
+        <v>105.6434554</v>
       </c>
       <c r="C47" t="n">
-        <v>1.4735629</v>
+        <v>1.3357455</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -10678,41 +10553,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/105.8043506,1.4735629_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.6434554,1.3357455_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/105.8043506,1.4735629_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.6434554,1.3357455_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/105.8043506,1.4735629_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.6434554,1.3357455_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/105.8043506,1.4735629_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.6434554,1.3357455_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/105.8043506,1.4735629_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.6434554,1.3357455_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>105.6434554_1.3357455_10550_0145_47</t>
+          <t>105.8284472_0.9353929_10550_0145_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>105.6434554</v>
+        <v>105.8284472</v>
       </c>
       <c r="C48" t="n">
-        <v>1.3357455</v>
+        <v>0.9353929</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -10721,41 +10596,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/105.6434554,1.3357455_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.8284472,0.9353929_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/105.6434554,1.3357455_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.8284472,0.9353929_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/105.6434554,1.3357455_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.8284472,0.9353929_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/105.6434554,1.3357455_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.8284472,0.9353929_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/105.6434554,1.3357455_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.8284472,0.9353929_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>105.8284472_0.9353929_10550_0145_48</t>
+          <t>105.6045886_0.8384143_10550_0145_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>105.8284472</v>
+        <v>105.6045886</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9353929</v>
+        <v>0.8384142999999999</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -10764,41 +10639,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/105.8284472,0.9353929_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.6045886,0.8384143_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/105.8284472,0.9353929_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.6045886,0.8384143_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/105.8284472,0.9353929_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.6045886,0.8384143_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/105.8284472,0.9353929_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.6045886,0.8384143_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/105.8284472,0.9353929_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.6045886,0.8384143_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>105.6045886_0.8384143_10550_0145_49</t>
+          <t>105.4835827_0.8149167_10550_0145_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>105.6045886</v>
+        <v>105.4835827</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8384142999999999</v>
+        <v>0.8149167</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -10807,41 +10682,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/105.6045886,0.8384143_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.4835827,0.8149167_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/105.6045886,0.8384143_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4835827,0.8149167_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/105.6045886,0.8384143_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4835827,0.8149167_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/105.6045886,0.8384143_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4835827,0.8149167_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/105.6045886,0.8384143_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4835827,0.8149167_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>105.4835827_0.8149167_10550_0145_50</t>
+          <t>105.4955827_1.0355834_10550_0145_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>105.4835827</v>
+        <v>105.4955827</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8149167</v>
+        <v>1.0355834</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -10850,41 +10725,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/105.4835827,0.8149167_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.4955827,1.0355834_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/105.4835827,0.8149167_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4955827,1.0355834_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/105.4835827,0.8149167_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4955827,1.0355834_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/105.4835827,0.8149167_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4955827,1.0355834_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/105.4835827,0.8149167_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4955827,1.0355834_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>105.4955827_1.0355834_10550_0145_51</t>
+          <t>105.5022504_1.1400834_10550_0145_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>105.4955827</v>
+        <v>105.5022504</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0355834</v>
+        <v>1.1400834</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -10893,41 +10768,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/105.4955827,1.0355834_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.5022504,1.1400834_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/105.4955827,1.0355834_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.5022504,1.1400834_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/105.4955827,1.0355834_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.5022504,1.1400834_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/105.4955827,1.0355834_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.5022504,1.1400834_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/105.4955827,1.0355834_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.5022504,1.1400834_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>105.5022504_1.1400834_10550_0145_52</t>
+          <t>105.4472342_1.4049161_10550_0145_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>105.5022504</v>
+        <v>105.4472342</v>
       </c>
       <c r="C53" t="n">
-        <v>1.1400834</v>
+        <v>1.4049161</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -10936,41 +10811,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/105.5022504,1.1400834_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.4472342,1.4049161_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/105.5022504,1.1400834_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4472342,1.4049161_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/105.5022504,1.1400834_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4472342,1.4049161_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/105.5022504,1.1400834_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4472342,1.4049161_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/105.5022504,1.1400834_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4472342,1.4049161_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>105.4472342_1.4049161_10550_0145_53</t>
+          <t>105.4337282_1.4690824_10550_0145_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>105.4472342</v>
+        <v>105.4337282</v>
       </c>
       <c r="C54" t="n">
-        <v>1.4049161</v>
+        <v>1.4690824</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -10979,41 +10854,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/105.4472342,1.4049161_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.4337282,1.4690824_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/105.4472342,1.4049161_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4337282,1.4690824_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/105.4472342,1.4049161_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4337282,1.4690824_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/105.4472342,1.4049161_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4337282,1.4690824_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cuts/105.4472342,1.4049161_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4337282,1.4690824_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>105.4337282_1.4690824_10550_0145_54</t>
+          <t>105.3811952_1.7685803_10550_0145_54</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>105.4337282</v>
+        <v>105.3811952</v>
       </c>
       <c r="C55" t="n">
-        <v>1.4690824</v>
+        <v>1.7685803</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -11022,41 +10897,41 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cuts/105.4337282,1.4690824_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.3811952,1.7685803_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cuts/105.4337282,1.4690824_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3811952,1.7685803_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cuts/105.4337282,1.4690824_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3811952,1.7685803_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cuts/105.4337282,1.4690824_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3811952,1.7685803_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cuts/105.4337282,1.4690824_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3811952,1.7685803_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>105.3811952_1.7685803_10550_0145_55</t>
+          <t>105.4122002_2.0085817_10550_0145_55</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>105.3811952</v>
+        <v>105.4122002</v>
       </c>
       <c r="C56" t="n">
-        <v>1.7685803</v>
+        <v>2.0085817</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -11065,41 +10940,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cuts/105.3811952,1.7685803_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.4122002,2.0085817_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>cuts/105.3811952,1.7685803_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4122002,2.0085817_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cuts/105.3811952,1.7685803_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4122002,2.0085817_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cuts/105.3811952,1.7685803_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4122002,2.0085817_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>cuts/105.3811952,1.7685803_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.4122002,2.0085817_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>105.4122002_2.0085817_10550_0145_56</t>
+          <t>105.2126023_1.8887318_10550_0145_56</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>105.4122002</v>
+        <v>105.2126023</v>
       </c>
       <c r="C57" t="n">
-        <v>2.0085817</v>
+        <v>1.8887318</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -11108,41 +10983,41 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cuts/105.4122002,2.0085817_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.2126023,1.8887318_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cuts/105.4122002,2.0085817_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2126023,1.8887318_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cuts/105.4122002,2.0085817_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2126023,1.8887318_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cuts/105.4122002,2.0085817_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2126023,1.8887318_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cuts/105.4122002,2.0085817_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2126023,1.8887318_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>105.2126023_1.8887318_10550_0145_57</t>
+          <t>105.3089975_1.7419087_10550_0145_57</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>105.2126023</v>
+        <v>105.3089975</v>
       </c>
       <c r="C58" t="n">
-        <v>1.8887318</v>
+        <v>1.7419087</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -11151,41 +11026,41 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cuts/105.2126023,1.8887318_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.3089975,1.7419087_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cuts/105.2126023,1.8887318_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3089975,1.7419087_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cuts/105.2126023,1.8887318_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3089975,1.7419087_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cuts/105.2126023,1.8887318_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3089975,1.7419087_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cuts/105.2126023,1.8887318_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3089975,1.7419087_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>105.3089975_1.7419087_10550_0145_58</t>
+          <t>105.1638048_1.4785584_10550_0145_58</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>105.3089975</v>
+        <v>105.1638048</v>
       </c>
       <c r="C59" t="n">
-        <v>1.7419087</v>
+        <v>1.4785584</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -11194,41 +11069,41 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cuts/105.3089975,1.7419087_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.1638048,1.4785584_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>cuts/105.3089975,1.7419087_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.1638048,1.4785584_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cuts/105.3089975,1.7419087_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.1638048,1.4785584_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cuts/105.3089975,1.7419087_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.1638048,1.4785584_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>cuts/105.3089975,1.7419087_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.1638048,1.4785584_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>105.1638048_1.4785584_10550_0145_59</t>
+          <t>105.2573597_1.2567371_10550_0145_59</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>105.1638048</v>
+        <v>105.2573597</v>
       </c>
       <c r="C60" t="n">
-        <v>1.4785584</v>
+        <v>1.2567371</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -11237,41 +11112,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cuts/105.1638048,1.4785584_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.2573597,1.2567371_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>cuts/105.1638048,1.4785584_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2573597,1.2567371_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cuts/105.1638048,1.4785584_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2573597,1.2567371_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cuts/105.1638048,1.4785584_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2573597,1.2567371_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cuts/105.1638048,1.4785584_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2573597,1.2567371_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>105.2573597_1.2567371_10550_0145_60</t>
+          <t>105.2080145_1.2583979_10550_0145_60</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>105.2573597</v>
+        <v>105.2080145</v>
       </c>
       <c r="C61" t="n">
-        <v>1.2567371</v>
+        <v>1.2583979</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -11280,41 +11155,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cuts/105.2573597,1.2567371_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.2080145,1.2583979_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cuts/105.2573597,1.2567371_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2080145,1.2583979_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cuts/105.2573597,1.2567371_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2080145,1.2583979_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cuts/105.2573597,1.2567371_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2080145,1.2583979_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cuts/105.2573597,1.2567371_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2080145,1.2583979_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>105.2080145_1.2583979_10550_0145_61</t>
+          <t>105.3445516_1.1869114_10550_0145_61</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>105.2080145</v>
+        <v>105.3445516</v>
       </c>
       <c r="C62" t="n">
-        <v>1.2583979</v>
+        <v>1.1869114</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -11323,41 +11198,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>cuts/105.2080145,1.2583979_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.3445516,1.1869114_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>cuts/105.2080145,1.2583979_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.3445516,1.1869114_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cuts/105.2080145,1.2583979_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.3445516,1.1869114_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>cuts/105.2080145,1.2583979_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.3445516,1.1869114_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>cuts/105.2080145,1.2583979_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.3445516,1.1869114_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>105.3445516_1.1869114_10550_0145_62</t>
+          <t>105.2693817_1.0679050_10550_0145_62</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>105.3445516</v>
+        <v>105.2693817</v>
       </c>
       <c r="C63" t="n">
-        <v>1.1869114</v>
+        <v>1.067905</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -11366,41 +11241,41 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cuts/105.3445516,1.1869114_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.2693817,1.0679050_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>cuts/105.3445516,1.1869114_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.2693817,1.0679050_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cuts/105.3445516,1.1869114_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.2693817,1.0679050_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>cuts/105.3445516,1.1869114_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.2693817,1.0679050_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cuts/105.3445516,1.1869114_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.2693817,1.0679050_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>105.2693817_1.0679050_10550_0145_63</t>
+          <t>105.1196656_1.2273848_10550_0145_63</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>105.2693817</v>
+        <v>105.1196656</v>
       </c>
       <c r="C64" t="n">
-        <v>1.067905</v>
+        <v>1.2273848</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -11409,41 +11284,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>cuts/105.2693817,1.0679050_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.1196656,1.2273848_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>cuts/105.2693817,1.0679050_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.1196656,1.2273848_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cuts/105.2693817,1.0679050_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.1196656,1.2273848_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cuts/105.2693817,1.0679050_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.1196656,1.2273848_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cuts/105.2693817,1.0679050_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.1196656,1.2273848_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>105.1196656_1.2273848_10550_0145_64</t>
+          <t>105.0744771_1.2900434_10550_0145_64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>105.1196656</v>
+        <v>105.0744771</v>
       </c>
       <c r="C65" t="n">
-        <v>1.2273848</v>
+        <v>1.2900434</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -11452,41 +11327,41 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cuts/105.1196656,1.2273848_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.0744771,1.2900434_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>cuts/105.1196656,1.2273848_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.0744771,1.2900434_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>cuts/105.1196656,1.2273848_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.0744771,1.2900434_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cuts/105.1196656,1.2273848_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.0744771,1.2900434_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cuts/105.1196656,1.2273848_10550_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/105.0744771,1.2900434_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>105.0744771_1.2900434_10550_0145_65</t>
+          <t>105.4207402_1.0037487_10550_0145_65</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>105.0744771</v>
+        <v>105.4207402</v>
       </c>
       <c r="C66" t="n">
-        <v>1.2900434</v>
+        <v>1.0037487</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -11495,68 +11370,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cuts/105.0744771,1.2900434_10550_0145_RGB-composite.jpeg</t>
+          <t>cuts/105.4207402,1.0037487_10550_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>cuts/105.0744771,1.2900434_10550_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/105.4207402,1.0037487_10550_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>cuts/105.0744771,1.2900434_10550_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/105.4207402,1.0037487_10550_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>cuts/105.0744771,1.2900434_10550_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/105.4207402,1.0037487_10550_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
-        <is>
-          <t>cuts/105.0744771,1.2900434_10550_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>105.4207402_1.0037487_10550_0145_66</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>105.4207402</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1.0037487</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>cuts/105.4207402,1.0037487_10550_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>cuts/105.4207402,1.0037487_10550_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>cuts/105.4207402,1.0037487_10550_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>cuts/105.4207402,1.0037487_10550_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
         <is>
           <t>cuts/105.4207402,1.0037487_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
@@ -11573,7 +11405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R847"/>
+  <dimension ref="A1:R834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11670,420 +11502,413 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>106.0249276_1.0354714_10550_0145_7</t>
+          <t>105.3902834_0.9991541_10550_0145_7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>105.3902834_0.9991541_10550_0145_8</t>
+          <t>105.2071823_1.2588261_10550_0145_8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>105.2071823_1.2588261_10550_0145_9</t>
+          <t>105.1965085_2.0789630_10550_0145_9</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>105.1965085_2.0789630_10550_0145_10</t>
+          <t>105.0641002_1.6416481_10550_0145_10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>105.0641002_1.6416481_10550_0145_11</t>
+          <t>105.9942496_1.4866961_10550_0145_11</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>105.9942496_1.4866961_10550_0145_12</t>
+          <t>105.9348692_1.3457083_10550_0145_12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>105.9348692_1.3457083_10550_0145_13</t>
+          <t>106.0366351_0.9435198_10550_0145_13</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>106.0366351_0.9435198_10550_0145_14</t>
+          <t>105.9429501_0.8957067_10550_0145_14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>105.9429501_0.8957067_10550_0145_15</t>
+          <t>105.8490145_1.3598898_10550_0145_15</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>105.8490145_1.3598898_10550_0145_16</t>
+          <t>105.8573619_1.4342219_10550_0145_16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>105.8573619_1.4342219_10550_0145_17</t>
+          <t>105.8237443_1.8508936_10550_0145_17</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>105.8237443_1.8508936_10550_0145_18</t>
+          <t>105.8507568_1.8450562_10550_0145_18</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>105.8507568_1.8450562_10550_0145_19</t>
+          <t>105.7810731_1.9850659_10550_0145_19</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>105.7810731_1.9850659_10550_0145_20</t>
+          <t>105.7480282_1.7427365_10550_0145_20</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>105.7480282_1.7427365_10550_0145_21</t>
+          <t>105.6483053_1.5699119_10550_0145_21</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>105.6483053_1.5699119_10550_0145_22</t>
+          <t>105.7137919_1.1690733_10550_0145_22</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>105.7137919_1.1690733_10550_0145_23</t>
+          <t>105.4370809_0.8132492_10550_0145_23</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>105.4370809_0.8132492_10550_0145_24</t>
+          <t>105.5169175_0.8409167_10550_0145_24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>105.5169175_0.8409167_10550_0145_25</t>
+          <t>105.5160925_2.0115833_10550_0145_25</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>105.5160925_2.0115833_10550_0145_26</t>
+          <t>105.3887357_1.0152473_10550_0145_26</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>105.3887357_1.0152473_10550_0145_27</t>
+          <t>105.1843419_1.2615614_10550_0145_27</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>105.1843419_1.2615614_10550_0145_28</t>
+          <t>105.0830889_1.9804483_10550_0145_28</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>105.0830889_1.9804483_10550_0145_29</t>
+          <t>105.0363164_2.0283693_10550_0145_29</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>105.0363164_2.0283693_10550_0145_30</t>
+          <t>105.4854092_1.8880833_10550_0145_30</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>105.4854092_1.8880833_10550_0145_31</t>
+          <t>105.9729026_1.4557007_10550_0145_31</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>105.9729026_1.4557007_10550_0145_32</t>
+          <t>105.8778701_1.4447185_10550_0145_32</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>105.8778701_1.4447185_10550_0145_33</t>
+          <t>105.9099247_1.6898796_10550_0145_33</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>105.9099247_1.6898796_10550_0145_34</t>
+          <t>105.8557620_1.8622221_10550_0145_34</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>105.8557620_1.8622221_10550_0145_35</t>
+          <t>105.9622024_1.3080362_10550_0145_35</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>105.9622024_1.3080362_10550_0145_36</t>
+          <t>105.9743623_1.2608670_10550_0145_36</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>105.9743623_1.2608670_10550_0145_37</t>
+          <t>106.0048479_1.1640271_10550_0145_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>106.0048479_1.1640271_10550_0145_38</t>
+          <t>106.0241868_1.1718561_10550_0145_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>106.0241868_1.1718561_10550_0145_39</t>
+          <t>105.8660707_1.6777205_10550_0145_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>105.8660707_1.6777205_10550_0145_40</t>
+          <t>105.8065407_1.6408960_10550_0145_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>105.8065407_1.6408960_10550_0145_41</t>
+          <t>105.8048636_1.5688962_10550_0145_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>105.8048636_1.5688962_10550_0145_42</t>
+          <t>105.8445458_1.5735572_10550_0145_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>105.8445458_1.5735572_10550_0145_43</t>
+          <t>105.6846464_1.4980759_10550_0145_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>105.6846464_1.4980759_10550_0145_44</t>
+          <t>105.8940503_1.4928824_10550_0145_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>105.8940503_1.4928824_10550_0145_45</t>
+          <t>105.8043506_1.4735629_10550_0145_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>105.8043506_1.4735629_10550_0145_46</t>
+          <t>105.6434554_1.3357455_10550_0145_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>105.6434554_1.3357455_10550_0145_47</t>
+          <t>105.8284472_0.9353929_10550_0145_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>105.8284472_0.9353929_10550_0145_48</t>
+          <t>105.6045886_0.8384143_10550_0145_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>105.6045886_0.8384143_10550_0145_49</t>
+          <t>105.4835827_0.8149167_10550_0145_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>105.4835827_0.8149167_10550_0145_50</t>
+          <t>105.4955827_1.0355834_10550_0145_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>105.4955827_1.0355834_10550_0145_51</t>
+          <t>105.5022504_1.1400834_10550_0145_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>105.5022504_1.1400834_10550_0145_52</t>
+          <t>105.4472342_1.4049161_10550_0145_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>105.4472342_1.4049161_10550_0145_53</t>
+          <t>105.4337282_1.4690824_10550_0145_53</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>105.4337282_1.4690824_10550_0145_54</t>
+          <t>105.3811952_1.7685803_10550_0145_54</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>105.3811952_1.7685803_10550_0145_55</t>
+          <t>105.4122002_2.0085817_10550_0145_55</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>105.4122002_2.0085817_10550_0145_56</t>
+          <t>105.2126023_1.8887318_10550_0145_56</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>105.2126023_1.8887318_10550_0145_57</t>
+          <t>105.3089975_1.7419087_10550_0145_57</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>105.3089975_1.7419087_10550_0145_58</t>
+          <t>105.1638048_1.4785584_10550_0145_58</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>105.1638048_1.4785584_10550_0145_59</t>
+          <t>105.2573597_1.2567371_10550_0145_59</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>105.2573597_1.2567371_10550_0145_60</t>
+          <t>105.2080145_1.2583979_10550_0145_60</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>105.2080145_1.2583979_10550_0145_61</t>
+          <t>105.3445516_1.1869114_10550_0145_61</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>105.3445516_1.1869114_10550_0145_62</t>
+          <t>105.2693817_1.0679050_10550_0145_62</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>105.2693817_1.0679050_10550_0145_63</t>
+          <t>105.1196656_1.2273848_10550_0145_63</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>105.1196656_1.2273848_10550_0145_64</t>
+          <t>105.0744771_1.2900434_10550_0145_64</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>105.0744771_1.2900434_10550_0145_65</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>105.4207402_1.0037487_10550_0145_66</t>
+          <t>105.4207402_1.0037487_10550_0145_65</t>
         </is>
       </c>
     </row>

--- a/10550_0145.xlsx
+++ b/10550_0145.xlsx
@@ -8544,7 +8544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8598,6 +8598,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8641,6 +8721,54 @@
           <t>cuts/105.9540031,1.9873711_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8684,6 +8812,54 @@
           <t>cuts/105.7752194,1.8444000_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8727,6 +8903,54 @@
           <t>cuts/105.8380111,1.3577247_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8770,6 +8994,54 @@
           <t>cuts/106.0203572,1.9163569_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8813,6 +9085,54 @@
           <t>cuts/105.4925798,1.7862500_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8856,6 +9176,54 @@
           <t>cuts/106.0249276,1.0354714_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8899,6 +9267,54 @@
           <t>cuts/105.3902834,0.9991541_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8942,6 +9358,54 @@
           <t>cuts/105.2071823,1.2588261_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8985,6 +9449,54 @@
           <t>cuts/105.1965085,2.0789630_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9028,6 +9540,54 @@
           <t>cuts/105.0641002,1.6416481_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9071,6 +9631,54 @@
           <t>cuts/105.9942496,1.4866961_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9114,6 +9722,54 @@
           <t>cuts/105.9348692,1.3457083_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X13" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9157,6 +9813,54 @@
           <t>cuts/106.0366351,0.9435198_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -9200,6 +9904,54 @@
           <t>cuts/105.9429501,0.8957067_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -9243,6 +9995,54 @@
           <t>cuts/105.8490145,1.3598898_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M16" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -9286,6 +10086,54 @@
           <t>cuts/105.8573619,1.4342219_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M17" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9329,6 +10177,54 @@
           <t>cuts/105.8237443,1.8508936_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9372,6 +10268,54 @@
           <t>cuts/105.8507568,1.8450562_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9415,6 +10359,54 @@
           <t>cuts/105.7810731,1.9850659_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9458,6 +10450,54 @@
           <t>cuts/105.7480282,1.7427365_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9501,6 +10541,54 @@
           <t>cuts/105.6483053,1.5699119_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9544,6 +10632,54 @@
           <t>cuts/105.7137919,1.1690733_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9587,6 +10723,54 @@
           <t>cuts/105.4370809,0.8132492_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X24" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9630,6 +10814,54 @@
           <t>cuts/105.5169175,0.8409167_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9673,6 +10905,54 @@
           <t>cuts/105.5160925,2.0115833_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9716,6 +10996,54 @@
           <t>cuts/105.3887357,1.0152473_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K27" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9759,6 +11087,54 @@
           <t>cuts/105.1843419,1.2615614_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X28" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9802,6 +11178,54 @@
           <t>cuts/105.0830889,1.9804483_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X29" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9845,6 +11269,54 @@
           <t>cuts/105.0363164,2.0283693_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X30" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9888,6 +11360,54 @@
           <t>cuts/105.4854092,1.8880833_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9931,6 +11451,54 @@
           <t>cuts/105.9729026,1.4557007_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X32" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9974,6 +11542,54 @@
           <t>cuts/105.8778701,1.4447185_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M33" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X33" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10017,6 +11633,54 @@
           <t>cuts/105.9099247,1.6898796_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10060,6 +11724,54 @@
           <t>cuts/105.8557620,1.8622221_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10103,6 +11815,54 @@
           <t>cuts/105.9622024,1.3080362_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M36" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X36" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10146,6 +11906,54 @@
           <t>cuts/105.9743623,1.2608670_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10189,6 +11997,54 @@
           <t>cuts/106.0048479,1.1640271_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10232,6 +12088,54 @@
           <t>cuts/106.0241868,1.1718561_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X39" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10275,6 +12179,54 @@
           <t>cuts/105.8660707,1.6777205_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X40" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10318,6 +12270,54 @@
           <t>cuts/105.8065407,1.6408960_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X41" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10361,6 +12361,54 @@
           <t>cuts/105.8048636,1.5688962_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X42" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10404,6 +12452,54 @@
           <t>cuts/105.8445458,1.5735572_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X43" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10447,6 +12543,54 @@
           <t>cuts/105.6846464,1.4980759_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10490,6 +12634,54 @@
           <t>cuts/105.8940503,1.4928824_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X45" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10533,6 +12725,54 @@
           <t>cuts/105.8043506,1.4735629_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X46" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10576,6 +12816,54 @@
           <t>cuts/105.6434554,1.3357455_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M47" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X47" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10619,6 +12907,54 @@
           <t>cuts/105.8284472,0.9353929_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O48" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X48" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10662,6 +12998,54 @@
           <t>cuts/105.6045886,0.8384143_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K49" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X49" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10705,6 +13089,54 @@
           <t>cuts/105.4835827,0.8149167_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O50" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10748,6 +13180,54 @@
           <t>cuts/105.4955827,1.0355834_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M51" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X51" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10791,6 +13271,54 @@
           <t>cuts/105.5022504,1.1400834_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M52" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X52" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10834,6 +13362,54 @@
           <t>cuts/105.4472342,1.4049161_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K53" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O53" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X53" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10877,6 +13453,54 @@
           <t>cuts/105.4337282,1.4690824_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J54" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O54" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X54" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10920,6 +13544,54 @@
           <t>cuts/105.3811952,1.7685803_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J55" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X55" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10963,6 +13635,54 @@
           <t>cuts/105.4122002,2.0085817_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M56" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X56" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11006,6 +13726,54 @@
           <t>cuts/105.2126023,1.8887318_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K57" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M57" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X57" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11049,6 +13817,54 @@
           <t>cuts/105.3089975,1.7419087_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K58" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M58" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X58" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11092,6 +13908,54 @@
           <t>cuts/105.1638048,1.4785584_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J59" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K59" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O59" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X59" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11135,6 +13999,54 @@
           <t>cuts/105.2573597,1.2567371_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J60" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K60" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X60" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11178,6 +14090,54 @@
           <t>cuts/105.2080145,1.2583979_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J61" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K61" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M61" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O61" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X61" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11221,6 +14181,54 @@
           <t>cuts/105.3445516,1.1869114_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J62" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K62" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M62" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O62" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X62" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11264,6 +14272,54 @@
           <t>cuts/105.2693817,1.0679050_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J63" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K63" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M63" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X63" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11307,6 +14363,54 @@
           <t>cuts/105.1196656,1.2273848_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K64" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M64" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X64" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11350,6 +14454,54 @@
           <t>cuts/105.0744771,1.2900434_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K65" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M65" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X65" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.310705</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11392,6 +14544,54 @@
         <is>
           <t>cuts/105.4207402,1.0037487_10550_0145_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J66" t="n">
+        <v>5.23531</v>
+      </c>
+      <c r="K66" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.76863</v>
+      </c>
+      <c r="M66" t="n">
+        <v>8.32888</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5.79379</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.893969</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>46.9274</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.6136</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.07513</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.269531</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.79249</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.483073</v>
+      </c>
+      <c r="X66" t="n">
+        <v>4.52727</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.310705</v>
       </c>
     </row>
   </sheetData>
